--- a/data/pca/factorExposure/factorExposure_2012-08-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002834589158521992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002211999118949892</v>
+      </c>
+      <c r="C2">
+        <v>0.02919170041027904</v>
+      </c>
+      <c r="D2">
+        <v>0.00492512284806804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002935034490338874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006507732655947559</v>
+      </c>
+      <c r="C4">
+        <v>0.08387110636135195</v>
+      </c>
+      <c r="D4">
+        <v>0.06832806224284636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005452218343869481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01452726827901258</v>
+      </c>
+      <c r="C6">
+        <v>0.1188961919040088</v>
+      </c>
+      <c r="D6">
+        <v>0.02026773610193368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006752311007582406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004635671148617922</v>
+      </c>
+      <c r="C7">
+        <v>0.05908577713118836</v>
+      </c>
+      <c r="D7">
+        <v>0.03165548263370415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005263901677718805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004908464396401197</v>
+      </c>
+      <c r="C8">
+        <v>0.03583268651724766</v>
+      </c>
+      <c r="D8">
+        <v>0.0396538272447218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0004053004307289664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005507107442192231</v>
+      </c>
+      <c r="C9">
+        <v>0.0719558465263459</v>
+      </c>
+      <c r="D9">
+        <v>0.07427418453989977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0008628799935918092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001904444753913845</v>
+      </c>
+      <c r="C10">
+        <v>0.05150693454305071</v>
+      </c>
+      <c r="D10">
+        <v>-0.1858213338777212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0006939294985672765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00584332468894667</v>
+      </c>
+      <c r="C11">
+        <v>0.0802637099574138</v>
+      </c>
+      <c r="D11">
+        <v>0.06565546668915338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000590973385283545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004234793831934877</v>
+      </c>
+      <c r="C12">
+        <v>0.06523432259829057</v>
+      </c>
+      <c r="D12">
+        <v>0.050629686199792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002019149569182649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008534277401563274</v>
+      </c>
+      <c r="C13">
+        <v>0.07125260004563135</v>
+      </c>
+      <c r="D13">
+        <v>0.05720646313763211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001633832042885281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006799189245519532</v>
+      </c>
+      <c r="C14">
+        <v>0.04314305798940554</v>
+      </c>
+      <c r="D14">
+        <v>0.01073088124610865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001278757002738628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005663579718646167</v>
+      </c>
+      <c r="C15">
+        <v>0.04077550687403991</v>
+      </c>
+      <c r="D15">
+        <v>0.02884469678230562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0002758919675596858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.0051987488301866</v>
+      </c>
+      <c r="C16">
+        <v>0.06497907130682429</v>
+      </c>
+      <c r="D16">
+        <v>0.0576527436594931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00264757495542183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00874856619153047</v>
+      </c>
+      <c r="C20">
+        <v>0.06424424467557441</v>
+      </c>
+      <c r="D20">
+        <v>0.05214975604969181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00520205716636876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.008989393875790936</v>
+      </c>
+      <c r="C21">
+        <v>0.0201566260344598</v>
+      </c>
+      <c r="D21">
+        <v>0.03955633502033123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02030269924194801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008195101163638393</v>
+      </c>
+      <c r="C22">
+        <v>0.08716919705995685</v>
+      </c>
+      <c r="D22">
+        <v>0.1270655619600463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01994449064467747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007884595465370172</v>
+      </c>
+      <c r="C23">
+        <v>0.08755435781128015</v>
+      </c>
+      <c r="D23">
+        <v>0.1281676872289027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001336118902186174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00568946714187537</v>
+      </c>
+      <c r="C24">
+        <v>0.0772309574471355</v>
+      </c>
+      <c r="D24">
+        <v>0.0673835424711681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003066979985922825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003006106234903573</v>
+      </c>
+      <c r="C25">
+        <v>0.07851104612751079</v>
+      </c>
+      <c r="D25">
+        <v>0.06566377097230519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00154583508652355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003373327874534712</v>
+      </c>
+      <c r="C26">
+        <v>0.03931462034040733</v>
+      </c>
+      <c r="D26">
+        <v>0.021154619852266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006808837879197347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002491499991477601</v>
+      </c>
+      <c r="C28">
+        <v>0.1024983722751492</v>
+      </c>
+      <c r="D28">
+        <v>-0.3249569593655584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006455155577711316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00322377765849623</v>
+      </c>
+      <c r="C29">
+        <v>0.04740587054590305</v>
+      </c>
+      <c r="D29">
+        <v>0.01020255531461861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003013125248342892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008759359663212314</v>
+      </c>
+      <c r="C30">
+        <v>0.1414608366390941</v>
+      </c>
+      <c r="D30">
+        <v>0.109728679782157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002201568723110036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006138947541540708</v>
+      </c>
+      <c r="C31">
+        <v>0.0438218036096706</v>
+      </c>
+      <c r="D31">
+        <v>0.03186467825824264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004728965944103032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004008133668405973</v>
+      </c>
+      <c r="C32">
+        <v>0.03988796593778435</v>
+      </c>
+      <c r="D32">
+        <v>0.02050692136732507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0004433167311343903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008722660175435408</v>
+      </c>
+      <c r="C33">
+        <v>0.09036587323071378</v>
+      </c>
+      <c r="D33">
+        <v>0.06311789023984275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001229180123753183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004257854204005778</v>
+      </c>
+      <c r="C34">
+        <v>0.05809973965412966</v>
+      </c>
+      <c r="D34">
+        <v>0.05801359845517987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002230888928036349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005162069268434035</v>
+      </c>
+      <c r="C35">
+        <v>0.04060426572482604</v>
+      </c>
+      <c r="D35">
+        <v>0.01574146572154816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004486446689145243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001512638002920694</v>
+      </c>
+      <c r="C36">
+        <v>0.02539244687810956</v>
+      </c>
+      <c r="D36">
+        <v>0.02342560263843472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002841135229584161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009060125300880323</v>
+      </c>
+      <c r="C38">
+        <v>0.04129327363638742</v>
+      </c>
+      <c r="D38">
+        <v>0.01048508029070483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01091912618232396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.002064987585887228</v>
+      </c>
+      <c r="C39">
+        <v>0.1117440788147867</v>
+      </c>
+      <c r="D39">
+        <v>0.08022240100451174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003935877543353711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002471637185418018</v>
+      </c>
+      <c r="C40">
+        <v>0.09122578944491037</v>
+      </c>
+      <c r="D40">
+        <v>0.01719901911368907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002426978178780444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007344647060439597</v>
+      </c>
+      <c r="C41">
+        <v>0.04145386256395186</v>
+      </c>
+      <c r="D41">
+        <v>0.04077677080842724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00163969014914647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003764137478909626</v>
+      </c>
+      <c r="C43">
+        <v>0.05419220595546674</v>
+      </c>
+      <c r="D43">
+        <v>0.02842593103512269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007479731920455744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001815471451511312</v>
+      </c>
+      <c r="C44">
+        <v>0.1052382255818878</v>
+      </c>
+      <c r="D44">
+        <v>0.07007180966388001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001395863907025305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001415710031425972</v>
+      </c>
+      <c r="C46">
+        <v>0.03294358142421725</v>
+      </c>
+      <c r="D46">
+        <v>0.03295940008044056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002190361657128012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002721468820996286</v>
+      </c>
+      <c r="C47">
+        <v>0.03586932864101481</v>
+      </c>
+      <c r="D47">
+        <v>0.02222472420257816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004535130154599182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007273274874624147</v>
+      </c>
+      <c r="C48">
+        <v>0.03352078167597281</v>
+      </c>
+      <c r="D48">
+        <v>0.03238696210013028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00454617006451141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01671391894231995</v>
+      </c>
+      <c r="C49">
+        <v>0.1860403559298456</v>
+      </c>
+      <c r="D49">
+        <v>0.006110743155849884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004025094986825104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003778463590258614</v>
+      </c>
+      <c r="C50">
+        <v>0.04327513451920317</v>
+      </c>
+      <c r="D50">
+        <v>0.04067389548457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000198278490464981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003870235013312331</v>
+      </c>
+      <c r="C51">
+        <v>0.02677173154795816</v>
+      </c>
+      <c r="D51">
+        <v>0.02276162584155103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008560529783797271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02136272027184714</v>
+      </c>
+      <c r="C53">
+        <v>0.1718236649548752</v>
+      </c>
+      <c r="D53">
+        <v>0.01939718022240855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004028972383578741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00956079245578817</v>
+      </c>
+      <c r="C54">
+        <v>0.05699754042528796</v>
+      </c>
+      <c r="D54">
+        <v>0.04156313442106079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001862121756660545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01003268487915291</v>
+      </c>
+      <c r="C55">
+        <v>0.1088405727735148</v>
+      </c>
+      <c r="D55">
+        <v>0.03594454251157839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009551581036903962</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0211391333128788</v>
+      </c>
+      <c r="C56">
+        <v>0.1744017782970237</v>
+      </c>
+      <c r="D56">
+        <v>0.01371037742668687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001194359449714422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01624737029379578</v>
+      </c>
+      <c r="C58">
+        <v>0.1074151867393214</v>
+      </c>
+      <c r="D58">
+        <v>0.06726996234205794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003004621643025647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008911238807515841</v>
+      </c>
+      <c r="C59">
+        <v>0.1677213111893231</v>
+      </c>
+      <c r="D59">
+        <v>-0.3457345334759789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008486284234253056</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02556385748922733</v>
+      </c>
+      <c r="C60">
+        <v>0.2237951588328299</v>
+      </c>
+      <c r="D60">
+        <v>0.01544338471740498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.010258509485989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002268523854318377</v>
+      </c>
+      <c r="C61">
+        <v>0.09397760379335529</v>
+      </c>
+      <c r="D61">
+        <v>0.05928683994154115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.150047761078449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1523136460317522</v>
+      </c>
+      <c r="C62">
+        <v>0.1022687686905986</v>
+      </c>
+      <c r="D62">
+        <v>0.01584509955044711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001610409256749058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006566905629246708</v>
+      </c>
+      <c r="C63">
+        <v>0.05373134008736462</v>
+      </c>
+      <c r="D63">
+        <v>0.03341078584037768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01004376107686375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01674962898871318</v>
+      </c>
+      <c r="C64">
+        <v>0.1064934776092014</v>
+      </c>
+      <c r="D64">
+        <v>0.0540465155442966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00881165673983768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01778137697853941</v>
+      </c>
+      <c r="C65">
+        <v>0.1206148160498897</v>
+      </c>
+      <c r="D65">
+        <v>0.02731192088328541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001135258513996526</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01249596073842228</v>
+      </c>
+      <c r="C66">
+        <v>0.1597256470768422</v>
+      </c>
+      <c r="D66">
+        <v>0.1128214506853509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006010299055766385</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01540415508975375</v>
+      </c>
+      <c r="C67">
+        <v>0.07368934680362259</v>
+      </c>
+      <c r="D67">
+        <v>0.02058807101221726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004426121951180402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.903704881683318e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08428232213150871</v>
+      </c>
+      <c r="D68">
+        <v>-0.2581286075421699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00037001050640442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006095647372866424</v>
+      </c>
+      <c r="C69">
+        <v>0.05286287533190996</v>
+      </c>
+      <c r="D69">
+        <v>0.03903997999685831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001263892035397693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002465718039367386</v>
+      </c>
+      <c r="C70">
+        <v>0.008493761009808771</v>
+      </c>
+      <c r="D70">
+        <v>-0.001345248913289286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.00019238285545726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004385521774729094</v>
+      </c>
+      <c r="C71">
+        <v>0.08876695144657545</v>
+      </c>
+      <c r="D71">
+        <v>-0.3010993347898093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005114605966507734</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01803310275633797</v>
+      </c>
+      <c r="C72">
+        <v>0.1586491770771215</v>
+      </c>
+      <c r="D72">
+        <v>0.005568037908723057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009871185646934918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03082799193861824</v>
+      </c>
+      <c r="C73">
+        <v>0.2808863990794456</v>
+      </c>
+      <c r="D73">
+        <v>0.05202471531792092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005171928749282555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001935121833840815</v>
+      </c>
+      <c r="C74">
+        <v>0.1029158426190515</v>
+      </c>
+      <c r="D74">
+        <v>0.03309331351865147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0005869620368859766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01123809608136861</v>
+      </c>
+      <c r="C75">
+        <v>0.1209435982975455</v>
+      </c>
+      <c r="D75">
+        <v>0.02797224002829778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01145043110780052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02181534041837826</v>
+      </c>
+      <c r="C76">
+        <v>0.146227021076353</v>
+      </c>
+      <c r="D76">
+        <v>0.05823286887963631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007817386087120862</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02106837702075456</v>
+      </c>
+      <c r="C77">
+        <v>0.110780498489521</v>
+      </c>
+      <c r="D77">
+        <v>0.05131158277988182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004981218161564448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01379232985714177</v>
+      </c>
+      <c r="C78">
+        <v>0.09941596274449797</v>
+      </c>
+      <c r="D78">
+        <v>0.08291149105480523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02756899797318946</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03879066099898783</v>
+      </c>
+      <c r="C79">
+        <v>0.1578278644593734</v>
+      </c>
+      <c r="D79">
+        <v>0.03072548894888828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006301166134263633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009377546718737577</v>
+      </c>
+      <c r="C80">
+        <v>0.03985958644495498</v>
+      </c>
+      <c r="D80">
+        <v>0.03126287261679013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00505795850418689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01609556811623411</v>
+      </c>
+      <c r="C81">
+        <v>0.1306164169785738</v>
+      </c>
+      <c r="D81">
+        <v>0.03786152994951241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007999774927730425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0194775672450565</v>
+      </c>
+      <c r="C82">
+        <v>0.1364335871134478</v>
+      </c>
+      <c r="D82">
+        <v>0.03703071730577362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003814088152741011</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01205219185997833</v>
+      </c>
+      <c r="C83">
+        <v>0.06457612102495877</v>
+      </c>
+      <c r="D83">
+        <v>0.04582772372770159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004051047723087676</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006172285891840749</v>
+      </c>
+      <c r="C84">
+        <v>0.03425078712473453</v>
+      </c>
+      <c r="D84">
+        <v>0.01170317718701711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01874408449013639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02907567691396463</v>
+      </c>
+      <c r="C85">
+        <v>0.1234613364646081</v>
+      </c>
+      <c r="D85">
+        <v>0.0393461369918885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002796639150182794</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003528206096130694</v>
+      </c>
+      <c r="C86">
+        <v>0.05086339626023054</v>
+      </c>
+      <c r="D86">
+        <v>0.02693650212356068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001332238185183611</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01129834288461772</v>
+      </c>
+      <c r="C87">
+        <v>0.128540399169831</v>
+      </c>
+      <c r="D87">
+        <v>0.07511519768002962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008451083672352123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002864742339896856</v>
+      </c>
+      <c r="C88">
+        <v>0.06358244538591083</v>
+      </c>
+      <c r="D88">
+        <v>0.0291255662340553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01153631796408371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003600211934681876</v>
+      </c>
+      <c r="C89">
+        <v>0.1345285489215389</v>
+      </c>
+      <c r="D89">
+        <v>-0.314335476447256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001909869095851978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005340891966576162</v>
+      </c>
+      <c r="C90">
+        <v>0.1161382886415927</v>
+      </c>
+      <c r="D90">
+        <v>-0.3137692620921835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002414652333019367</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01091698084333995</v>
+      </c>
+      <c r="C91">
+        <v>0.09953535183146932</v>
+      </c>
+      <c r="D91">
+        <v>0.02971763690359184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005594397824032534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006927228705151072</v>
+      </c>
+      <c r="C92">
+        <v>0.1290991982185232</v>
+      </c>
+      <c r="D92">
+        <v>-0.3261304911305839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002015067297621935</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.002785474800028991</v>
+      </c>
+      <c r="C93">
+        <v>0.1037229376141003</v>
+      </c>
+      <c r="D93">
+        <v>-0.3008529213823782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01044864709467527</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02193459157812963</v>
+      </c>
+      <c r="C94">
+        <v>0.1409952444690952</v>
+      </c>
+      <c r="D94">
+        <v>0.05463074721527995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006991896101314005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01587988069636869</v>
+      </c>
+      <c r="C95">
+        <v>0.1204836546375676</v>
+      </c>
+      <c r="D95">
+        <v>0.06530410485698838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01701066553011005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03706602891406014</v>
+      </c>
+      <c r="C97">
+        <v>0.2258319288892744</v>
+      </c>
+      <c r="D97">
+        <v>-0.003591932068442307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01214989221494224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03883344954456163</v>
+      </c>
+      <c r="C98">
+        <v>0.2612012996079978</v>
+      </c>
+      <c r="D98">
+        <v>0.02626376323564613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864761328591071</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9809294108642104</v>
+      </c>
+      <c r="C99">
+        <v>-0.118942204535783</v>
+      </c>
+      <c r="D99">
+        <v>-0.02441734224559435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006706794989031347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003206233111267676</v>
+      </c>
+      <c r="C101">
+        <v>0.04752101553371562</v>
+      </c>
+      <c r="D101">
+        <v>0.01068296642827044</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
